--- a/Таблицы экономическая часть.xlsx
+++ b/Таблицы экономическая часть.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Показатели качества</t>
   </si>
@@ -22,21 +22,6 @@
     <t>B</t>
   </si>
   <si>
-    <t>Flowwow</t>
-  </si>
-  <si>
-    <t>Flor2U</t>
-  </si>
-  <si>
-    <t>FloraExpress</t>
-  </si>
-  <si>
-    <t>СоюзЦветТорг</t>
-  </si>
-  <si>
-    <t>Vetochka</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -49,13 +34,19 @@
     <t>2. Функциональность админ-панели</t>
   </si>
   <si>
-    <t>3. Офлайн-режим</t>
-  </si>
-  <si>
-    <t>4. AI-визуализация</t>
-  </si>
-  <si>
     <t>Обобщённый показатель качества J</t>
+  </si>
+  <si>
+    <t>Аналог</t>
+  </si>
+  <si>
+    <t>Проект</t>
+  </si>
+  <si>
+    <t>3. Гибкость настройки</t>
+  </si>
+  <si>
+    <t>3. Автономность</t>
   </si>
 </sst>
 </file>
@@ -94,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -103,64 +94,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -169,30 +112,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -502,275 +439,198 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection sqref="A1:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:12" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="7" t="s">
+      <c r="E2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="7" t="s">
+      <c r="B3" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="C3" s="5">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5">
+        <f>B3*C3</f>
+        <v>1.2</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5">
+        <f>B3*E3</f>
+        <v>1.2</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C4" s="5">
         <v>5</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="7" t="s">
+      <c r="D4" s="5">
+        <f>B4*C4</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
+      <c r="F4" s="5">
+        <f>B4*E4</f>
+        <v>0.4</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" ht="69" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5">
+        <f>B5*C5</f>
+        <v>1.2</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5">
+        <f>B5*E5</f>
+        <v>1.2</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C6" s="5">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5">
+        <f>B6*C6</f>
+        <v>0.8</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
+        <f>B6*E6</f>
+        <v>0.2</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="8"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="C3" s="1">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1">
-        <f>B3*C3</f>
-        <v>1.4</v>
-      </c>
-      <c r="E3" s="1">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1">
-        <f>B3*E3</f>
-        <v>1.4</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6">
+        <f>SUM(D3:D6)</f>
+        <v>4.2</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6">
+        <f>SUM(F3:F6)</f>
         <v>3</v>
       </c>
-      <c r="H3" s="1">
-        <f>B3*G3</f>
-        <v>1.0499999999999998</v>
-      </c>
-      <c r="I3" s="1">
-        <v>4</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1">
-        <v>5</v>
-      </c>
-      <c r="L3" s="1">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1">
-        <f t="shared" ref="D4:D6" si="0">B4*C4</f>
-        <v>1.2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" ref="F4:F6" si="1">B4*E4</f>
-        <v>1.2</v>
-      </c>
-      <c r="G4" s="1">
-        <v>3</v>
-      </c>
-      <c r="H4" s="1">
-        <f t="shared" ref="H4:H6" si="2">B4*G4</f>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="I4" s="1">
-        <v>3</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="K4" s="1">
-        <v>5</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="K5" s="1">
-        <v>5</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>2</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="K6" s="1">
-        <v>5</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="4">
-        <f>SUM(D3,D4,D5,D6)</f>
-        <v>2.9499999999999997</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="4">
-        <f>SUM(F3,F4,F5,F6)</f>
-        <v>2.9499999999999997</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="4">
-        <f>SUM(F3,F4,F5,F6)</f>
-        <v>2.9499999999999997</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="4">
-        <v>2.7</v>
-      </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="4">
-        <v>5</v>
-      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
+    <mergeCell ref="C1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
